--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1225.55031960593</v>
+        <v>1329.065481805711</v>
       </c>
       <c r="AB2" t="n">
-        <v>1676.852014749044</v>
+        <v>1818.486026437435</v>
       </c>
       <c r="AC2" t="n">
-        <v>1516.815611937979</v>
+        <v>1644.932272335413</v>
       </c>
       <c r="AD2" t="n">
-        <v>1225550.31960593</v>
+        <v>1329065.481805711</v>
       </c>
       <c r="AE2" t="n">
-        <v>1676852.014749044</v>
+        <v>1818486.026437435</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.255866518000033e-06</v>
+        <v>1.810538068009409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.19921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1516815.611937979</v>
+        <v>1644932.272335413</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>603.2275293943082</v>
+        <v>672.1238795575839</v>
       </c>
       <c r="AB3" t="n">
-        <v>825.3625182376727</v>
+        <v>919.6295440235192</v>
       </c>
       <c r="AC3" t="n">
-        <v>746.5910779006383</v>
+        <v>831.8613910500853</v>
       </c>
       <c r="AD3" t="n">
-        <v>603227.5293943082</v>
+        <v>672123.8795575839</v>
       </c>
       <c r="AE3" t="n">
-        <v>825362.5182376727</v>
+        <v>919629.5440235191</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.968062622327165e-06</v>
+        <v>2.837285847563031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>746591.0779006383</v>
+        <v>831861.3910500853</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.2062448210018</v>
+        <v>554.6398193893863</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.1947870048497</v>
+        <v>758.8826698704564</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.6597055784504</v>
+        <v>686.455972956536</v>
       </c>
       <c r="AD4" t="n">
-        <v>494206.2448210018</v>
+        <v>554639.8193893862</v>
       </c>
       <c r="AE4" t="n">
-        <v>676194.7870048496</v>
+        <v>758882.6698704564</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.234996112399434e-06</v>
+        <v>3.222114361163425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.60026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>611659.7055784503</v>
+        <v>686455.972956536</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.5929648059922</v>
+        <v>504.941198519805</v>
       </c>
       <c r="AB5" t="n">
-        <v>608.3117085048759</v>
+        <v>690.8828242482849</v>
       </c>
       <c r="AC5" t="n">
-        <v>550.255292816015</v>
+        <v>624.9459371621618</v>
       </c>
       <c r="AD5" t="n">
-        <v>444592.9648059922</v>
+        <v>504941.198519805</v>
       </c>
       <c r="AE5" t="n">
-        <v>608311.7085048759</v>
+        <v>690882.8242482849</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.380553758787216e-06</v>
+        <v>3.431959640178121e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>550255.292816015</v>
+        <v>624945.9371621618</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.269312333677</v>
+        <v>472.9842677605575</v>
       </c>
       <c r="AB6" t="n">
-        <v>576.3992582253281</v>
+        <v>647.1579417431989</v>
       </c>
       <c r="AC6" t="n">
-        <v>521.3885220017419</v>
+        <v>585.3940960751031</v>
       </c>
       <c r="AD6" t="n">
-        <v>421269.312333677</v>
+        <v>472984.2677605575</v>
       </c>
       <c r="AE6" t="n">
-        <v>576399.2582253282</v>
+        <v>647157.9417431989</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.467664268139236e-06</v>
+        <v>3.557543761615395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>521388.5220017419</v>
+        <v>585394.0960751032</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>404.2452952355819</v>
+        <v>455.9602506624623</v>
       </c>
       <c r="AB7" t="n">
-        <v>553.1062469850864</v>
+        <v>623.8649305029571</v>
       </c>
       <c r="AC7" t="n">
-        <v>500.3185630623221</v>
+        <v>564.3241371356834</v>
       </c>
       <c r="AD7" t="n">
-        <v>404245.2952355819</v>
+        <v>455960.2506624623</v>
       </c>
       <c r="AE7" t="n">
-        <v>553106.2469850864</v>
+        <v>623864.9305029571</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.528538922048687e-06</v>
+        <v>3.64530458388453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>500318.5630623221</v>
+        <v>564324.1371356833</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>380.6028484159012</v>
+        <v>432.4030551888022</v>
       </c>
       <c r="AB8" t="n">
-        <v>520.757608215259</v>
+        <v>591.6329363857792</v>
       </c>
       <c r="AC8" t="n">
-        <v>471.0572329750875</v>
+        <v>535.168319299161</v>
       </c>
       <c r="AD8" t="n">
-        <v>380602.8484159012</v>
+        <v>432403.0551888022</v>
       </c>
       <c r="AE8" t="n">
-        <v>520757.608215259</v>
+        <v>591632.9363857792</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.578863214160948e-06</v>
+        <v>3.717855324993524e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.78385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>471057.2329750875</v>
+        <v>535168.319299161</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>375.3577340558835</v>
+        <v>427.1579408287845</v>
       </c>
       <c r="AB9" t="n">
-        <v>513.5810113497683</v>
+        <v>584.4563395202885</v>
       </c>
       <c r="AC9" t="n">
-        <v>464.5655604420223</v>
+        <v>528.6766467660958</v>
       </c>
       <c r="AD9" t="n">
-        <v>375357.7340558835</v>
+        <v>427157.9408287845</v>
       </c>
       <c r="AE9" t="n">
-        <v>513581.0113497684</v>
+        <v>584456.3395202884</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.586519228916431e-06</v>
+        <v>3.728892729021237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.75130208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>464565.5604420223</v>
+        <v>528676.6467660958</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>359.0631376924082</v>
+        <v>410.8633444653092</v>
       </c>
       <c r="AB10" t="n">
-        <v>491.286025738405</v>
+        <v>562.1613539089251</v>
       </c>
       <c r="AC10" t="n">
-        <v>444.3983769661987</v>
+        <v>508.5094632902722</v>
       </c>
       <c r="AD10" t="n">
-        <v>359063.1376924082</v>
+        <v>410863.3444653092</v>
       </c>
       <c r="AE10" t="n">
-        <v>491286.0257384051</v>
+        <v>562161.3539089251</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.636750154995088e-06</v>
+        <v>3.801308867642088e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.52669270833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>444398.3769661987</v>
+        <v>508509.4632902722</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>350.6824284026084</v>
+        <v>402.3120429749172</v>
       </c>
       <c r="AB11" t="n">
-        <v>479.8191695573015</v>
+        <v>550.4610859529746</v>
       </c>
       <c r="AC11" t="n">
-        <v>434.0259014451859</v>
+        <v>497.9258524866083</v>
       </c>
       <c r="AD11" t="n">
-        <v>350682.4284026084</v>
+        <v>402312.0429749172</v>
       </c>
       <c r="AE11" t="n">
-        <v>479819.1695573015</v>
+        <v>550461.0859529746</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.652342282606865e-06</v>
+        <v>3.823787483161943e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>434025.9014451859</v>
+        <v>497925.8524866083</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>349.0969295178418</v>
+        <v>400.7265440901506</v>
       </c>
       <c r="AB12" t="n">
-        <v>477.6498200358895</v>
+        <v>548.2917364315625</v>
       </c>
       <c r="AC12" t="n">
-        <v>432.0635915973963</v>
+        <v>495.9635426388187</v>
       </c>
       <c r="AD12" t="n">
-        <v>349096.9295178418</v>
+        <v>400726.5440901506</v>
       </c>
       <c r="AE12" t="n">
-        <v>477649.8200358896</v>
+        <v>548291.7364315626</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.659064637026313e-06</v>
+        <v>3.833478862308227e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.42903645833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>432063.5915973964</v>
+        <v>495963.5426388187</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>350.3011222915312</v>
+        <v>401.93073686384</v>
       </c>
       <c r="AB13" t="n">
-        <v>479.2974497140873</v>
+        <v>549.9393661097604</v>
       </c>
       <c r="AC13" t="n">
-        <v>433.5539738115696</v>
+        <v>497.453924852992</v>
       </c>
       <c r="AD13" t="n">
-        <v>350301.1222915312</v>
+        <v>401930.73686384</v>
       </c>
       <c r="AE13" t="n">
-        <v>479297.4497140873</v>
+        <v>549939.3661097604</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.658877904959106e-06</v>
+        <v>3.833209657331942e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>433553.9738115696</v>
+        <v>497453.9248529921</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>862.8789383019231</v>
+        <v>946.9679225059326</v>
       </c>
       <c r="AB2" t="n">
-        <v>1180.629030916778</v>
+        <v>1295.683288848866</v>
       </c>
       <c r="AC2" t="n">
-        <v>1067.951453229332</v>
+        <v>1172.025094264047</v>
       </c>
       <c r="AD2" t="n">
-        <v>862878.9383019231</v>
+        <v>946967.9225059326</v>
       </c>
       <c r="AE2" t="n">
-        <v>1180629.030916778</v>
+        <v>1295683.288848866</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542572698109107e-06</v>
+        <v>2.258268400062113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.38411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1067951.453229332</v>
+        <v>1172025.094264047</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.0274914412121</v>
+        <v>551.8642049802128</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.5819646276926</v>
+        <v>755.0849517843598</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.2008087053587</v>
+        <v>683.0207037544455</v>
       </c>
       <c r="AD3" t="n">
-        <v>493027.4914412121</v>
+        <v>551864.2049802127</v>
       </c>
       <c r="AE3" t="n">
-        <v>674581.9646276926</v>
+        <v>755084.9517843598</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20128823258435e-06</v>
+        <v>3.222603162345227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>610200.8087053586</v>
+        <v>683020.7037544455</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.9890656351246</v>
+        <v>470.8256896655741</v>
       </c>
       <c r="AB4" t="n">
-        <v>563.7016152767795</v>
+        <v>644.2044799638983</v>
       </c>
       <c r="AC4" t="n">
-        <v>509.9027242749489</v>
+        <v>582.7225085428092</v>
       </c>
       <c r="AD4" t="n">
-        <v>411989.0656351246</v>
+        <v>470825.6896655742</v>
       </c>
       <c r="AE4" t="n">
-        <v>563701.6152767795</v>
+        <v>644204.4799638983</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.441304083489186e-06</v>
+        <v>3.573977338924925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.87760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>509902.7242749489</v>
+        <v>582722.5085428093</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.9071207830786</v>
+        <v>431.3264107670762</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.1739270915805</v>
+        <v>590.1598239897738</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.43381896216</v>
+        <v>533.8357986827042</v>
       </c>
       <c r="AD5" t="n">
-        <v>380907.1207830786</v>
+        <v>431326.4107670762</v>
       </c>
       <c r="AE5" t="n">
-        <v>521173.9270915805</v>
+        <v>590159.8239897739</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.570922301563347e-06</v>
+        <v>3.76373353408386e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.22981770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>471433.81896216</v>
+        <v>533835.7986827042</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.4719621152512</v>
+        <v>402.9765034452694</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.2676885315948</v>
+        <v>551.3702300824374</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.2407372050906</v>
+        <v>498.748229176347</v>
       </c>
       <c r="AD6" t="n">
-        <v>352471.9621152512</v>
+        <v>402976.5034452694</v>
       </c>
       <c r="AE6" t="n">
-        <v>482267.6885315948</v>
+        <v>551370.2300824374</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.64780464253729e-06</v>
+        <v>3.876286389036552e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>436240.7372050906</v>
+        <v>498748.229176347</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>335.6206086611445</v>
+        <v>386.1251499911627</v>
       </c>
       <c r="AB7" t="n">
-        <v>459.2109233064402</v>
+        <v>528.313464857283</v>
       </c>
       <c r="AC7" t="n">
-        <v>415.3844772926515</v>
+        <v>477.891969263908</v>
       </c>
       <c r="AD7" t="n">
-        <v>335620.6086611445</v>
+        <v>386125.1499911627</v>
       </c>
       <c r="AE7" t="n">
-        <v>459210.9233064402</v>
+        <v>528313.4648572829</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.707398115377646e-06</v>
+        <v>3.963528991430787e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.611328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>415384.4772926515</v>
+        <v>477891.969263908</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.6020922240885</v>
+        <v>373.9360413535145</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.766658897736</v>
+        <v>511.6357886737317</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.5096303994439</v>
+        <v>462.8059870880493</v>
       </c>
       <c r="AD8" t="n">
-        <v>323602.0922240885</v>
+        <v>373936.0413535145</v>
       </c>
       <c r="AE8" t="n">
-        <v>442766.658897736</v>
+        <v>511635.7886737317</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.739271447690964e-06</v>
+        <v>4.010190350896099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.47786458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>400509.630399444</v>
+        <v>462805.9870880494</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>321.6381903209431</v>
+        <v>371.9721394503691</v>
       </c>
       <c r="AB9" t="n">
-        <v>440.0795616726153</v>
+        <v>508.9486914486111</v>
       </c>
       <c r="AC9" t="n">
-        <v>398.0789859621242</v>
+        <v>460.3753426507296</v>
       </c>
       <c r="AD9" t="n">
-        <v>321638.1903209431</v>
+        <v>371972.1394503691</v>
       </c>
       <c r="AE9" t="n">
-        <v>440079.5616726154</v>
+        <v>508948.6914486111</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.743810982899225e-06</v>
+        <v>4.016836059668432e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>398078.9859621242</v>
+        <v>460375.3426507296</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.4527673127992</v>
+        <v>422.7385371064576</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.1333312262473</v>
+        <v>578.4095163770689</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.0195536495877</v>
+        <v>523.2069239368957</v>
       </c>
       <c r="AD2" t="n">
-        <v>368452.7673127992</v>
+        <v>422738.5371064576</v>
       </c>
       <c r="AE2" t="n">
-        <v>504133.3312262472</v>
+        <v>578409.5163770689</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.457825849479016e-06</v>
+        <v>3.802559965753388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>456019.5536495877</v>
+        <v>523206.9239368957</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.05250284534</v>
+        <v>317.2528422758758</v>
       </c>
       <c r="AB3" t="n">
-        <v>359.920039450377</v>
+        <v>434.0793350094527</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.5697760361803</v>
+        <v>392.6514125103228</v>
       </c>
       <c r="AD3" t="n">
-        <v>263052.50284534</v>
+        <v>317252.8422758757</v>
       </c>
       <c r="AE3" t="n">
-        <v>359920.039450377</v>
+        <v>434079.3350094527</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.924494822434252e-06</v>
+        <v>4.524554469226844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.99544270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>325569.7760361803</v>
+        <v>392651.4125103228</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.7110630142836</v>
+        <v>303.314795419726</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.2434017087791</v>
+        <v>415.0086843976389</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.7212244230086</v>
+        <v>375.4008380270744</v>
       </c>
       <c r="AD4" t="n">
-        <v>256711.0630142837</v>
+        <v>303314.7954197259</v>
       </c>
       <c r="AE4" t="n">
-        <v>351243.401708779</v>
+        <v>415008.684397639</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.962862987416252e-06</v>
+        <v>4.583914756348449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>317721.2244230086</v>
+        <v>375400.8380270744</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>506.1621296724266</v>
+        <v>570.2486024203628</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.5533561149829</v>
+        <v>780.2392954243461</v>
       </c>
       <c r="AC2" t="n">
-        <v>626.4570358121082</v>
+        <v>705.7743521417747</v>
       </c>
       <c r="AD2" t="n">
-        <v>506162.1296724266</v>
+        <v>570248.6024203628</v>
       </c>
       <c r="AE2" t="n">
-        <v>692553.3561149829</v>
+        <v>780239.2954243461</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.089332579960437e-06</v>
+        <v>3.1575957261582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.064453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>626457.0358121082</v>
+        <v>705774.3521417747</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.797981714588</v>
+        <v>395.8628994422285</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.926589410854</v>
+        <v>541.6370832554173</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.5546482460479</v>
+        <v>489.9440002219403</v>
       </c>
       <c r="AD3" t="n">
-        <v>339797.981714588</v>
+        <v>395862.8994422285</v>
       </c>
       <c r="AE3" t="n">
-        <v>464926.589410854</v>
+        <v>541637.0832554173</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.638060767413529e-06</v>
+        <v>3.986885326168758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.72135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>420554.6482460478</v>
+        <v>489944.0002219403</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.3985942130334</v>
+        <v>342.527387283501</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.8091445516067</v>
+        <v>468.6610825231161</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.3656051417857</v>
+        <v>423.9327265770696</v>
       </c>
       <c r="AD4" t="n">
-        <v>294398.5942130334</v>
+        <v>342527.387283501</v>
       </c>
       <c r="AE4" t="n">
-        <v>402809.1445516067</v>
+        <v>468661.0825231161</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.827156501308487e-06</v>
+        <v>4.272664568261836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.87174479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>364365.6051417857</v>
+        <v>423932.7265770696</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.6696770544776</v>
+        <v>326.798470124945</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.2881461844192</v>
+        <v>447.1400841559285</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.8985406538516</v>
+        <v>404.4656620891356</v>
       </c>
       <c r="AD5" t="n">
-        <v>278669.6770544776</v>
+        <v>326798.470124945</v>
       </c>
       <c r="AE5" t="n">
-        <v>381288.1461844192</v>
+        <v>447140.0841559286</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.895309325792985e-06</v>
+        <v>4.375663520837368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.591796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>344898.5406538516</v>
+        <v>404465.6620891356</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.8340186259021</v>
+        <v>327.9628116963697</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.8812496895671</v>
+        <v>448.7331876610766</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.3396005964031</v>
+        <v>405.906722031687</v>
       </c>
       <c r="AD6" t="n">
-        <v>279834.0186259021</v>
+        <v>327962.8116963697</v>
       </c>
       <c r="AE6" t="n">
-        <v>382881.2496895671</v>
+        <v>448733.1876610765</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.8948969032545e-06</v>
+        <v>4.375040229142508e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>346339.6005964031</v>
+        <v>405906.722031687</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.1117487736846</v>
+        <v>329.4647081050825</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.7342287978979</v>
+        <v>450.7881485864707</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.6339795933425</v>
+        <v>407.7655603705174</v>
       </c>
       <c r="AD2" t="n">
-        <v>284111.7487736846</v>
+        <v>329464.7081050825</v>
       </c>
       <c r="AE2" t="n">
-        <v>388734.2287978979</v>
+        <v>450788.1485864707</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.77932566472473e-06</v>
+        <v>4.39269083434821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.10872395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351633.9795933425</v>
+        <v>407765.5603705174</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.4222772789616</v>
+        <v>291.689895755791</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.1658311565271</v>
+        <v>399.1029838230654</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.9871974462647</v>
+        <v>361.0131551915471</v>
       </c>
       <c r="AD3" t="n">
-        <v>246422.2772789616</v>
+        <v>291689.895755791</v>
       </c>
       <c r="AE3" t="n">
-        <v>337165.8311565272</v>
+        <v>399102.9838230654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.996254103638807e-06</v>
+        <v>4.735543626815662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>304987.1974462647</v>
+        <v>361013.1551915471</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>941.0958681853274</v>
+        <v>1034.141285161579</v>
       </c>
       <c r="AB2" t="n">
-        <v>1287.648885070661</v>
+        <v>1414.957729451658</v>
       </c>
       <c r="AC2" t="n">
-        <v>1164.757482706077</v>
+        <v>1279.916149658437</v>
       </c>
       <c r="AD2" t="n">
-        <v>941095.8681853274</v>
+        <v>1034141.285161579</v>
       </c>
       <c r="AE2" t="n">
-        <v>1287648.885070661</v>
+        <v>1414957.729451658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467360491730859e-06</v>
+        <v>2.139244741780426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.23372395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1164757.482706077</v>
+        <v>1279916.149658437</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.328620237702</v>
+        <v>584.036740602653</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.4635970203019</v>
+        <v>799.1048343750814</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.0397028485693</v>
+        <v>722.839390533002</v>
       </c>
       <c r="AD3" t="n">
-        <v>516328.620237702</v>
+        <v>584036.740602653</v>
       </c>
       <c r="AE3" t="n">
-        <v>706463.5970203019</v>
+        <v>799104.8343750814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.142461179805076e-06</v>
+        <v>3.12346477855651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>639039.7028485693</v>
+        <v>722839.390533002</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.7541036178982</v>
+        <v>488.5992890410911</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.9544769180637</v>
+        <v>668.5231027453449</v>
       </c>
       <c r="AC4" t="n">
-        <v>541.791102278891</v>
+        <v>604.7201960973961</v>
       </c>
       <c r="AD4" t="n">
-        <v>437754.1036178982</v>
+        <v>488599.2890410911</v>
       </c>
       <c r="AE4" t="n">
-        <v>598954.4769180637</v>
+        <v>668523.1027453449</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390467118100878e-06</v>
+        <v>3.485029235565843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.03385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>541791.102278891</v>
+        <v>604720.1960973961</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>396.1913873902774</v>
+        <v>446.9512319588989</v>
       </c>
       <c r="AB5" t="n">
-        <v>542.0865349578033</v>
+        <v>611.538393662887</v>
       </c>
       <c r="AC5" t="n">
-        <v>490.3505568846601</v>
+        <v>553.1740276712264</v>
       </c>
       <c r="AD5" t="n">
-        <v>396191.3873902775</v>
+        <v>446951.2319588988</v>
       </c>
       <c r="AE5" t="n">
-        <v>542086.5349578033</v>
+        <v>611538.3936628869</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.522653996057846e-06</v>
+        <v>3.677742672512925e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>490350.5568846601</v>
+        <v>553174.0276712264</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>367.4967560751617</v>
+        <v>426.6453529331006</v>
       </c>
       <c r="AB6" t="n">
-        <v>502.8252744746723</v>
+        <v>583.754994147632</v>
       </c>
       <c r="AC6" t="n">
-        <v>454.836335998514</v>
+        <v>528.0422368114612</v>
       </c>
       <c r="AD6" t="n">
-        <v>367496.7560751617</v>
+        <v>426645.3529331007</v>
       </c>
       <c r="AE6" t="n">
-        <v>502825.2744746723</v>
+        <v>583754.994147632</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.601334382502906e-06</v>
+        <v>3.792449729117198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>454836.335998514</v>
+        <v>528042.2368114612</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>351.8348956789293</v>
+        <v>402.6799915935714</v>
       </c>
       <c r="AB7" t="n">
-        <v>481.3960261280316</v>
+        <v>550.9645294857645</v>
       </c>
       <c r="AC7" t="n">
-        <v>435.4522650379377</v>
+        <v>498.3812480752161</v>
       </c>
       <c r="AD7" t="n">
-        <v>351834.8956789293</v>
+        <v>402679.9915935714</v>
       </c>
       <c r="AE7" t="n">
-        <v>481396.0261280316</v>
+        <v>550964.5294857644</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.657425266270309e-06</v>
+        <v>3.874223859494454e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.72526041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>435452.2650379377</v>
+        <v>498381.2480752161</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>343.4559336873172</v>
+        <v>394.3010296019592</v>
       </c>
       <c r="AB8" t="n">
-        <v>469.9315606773936</v>
+        <v>539.5000640351265</v>
       </c>
       <c r="AC8" t="n">
-        <v>425.0819520794302</v>
+        <v>488.0109351167088</v>
       </c>
       <c r="AD8" t="n">
-        <v>343455.9336873172</v>
+        <v>394301.0296019592</v>
       </c>
       <c r="AE8" t="n">
-        <v>469931.5606773936</v>
+        <v>539500.0640351265</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.671878719254742e-06</v>
+        <v>3.895295350427842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.66015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>425081.9520794302</v>
+        <v>488010.9351167087</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>328.2371803506498</v>
+        <v>378.9116840646996</v>
       </c>
       <c r="AB9" t="n">
-        <v>449.1085909581534</v>
+        <v>518.4436825410393</v>
       </c>
       <c r="AC9" t="n">
-        <v>406.2462973649727</v>
+        <v>468.9641451196001</v>
       </c>
       <c r="AD9" t="n">
-        <v>328237.1803506498</v>
+        <v>378911.6840646996</v>
       </c>
       <c r="AE9" t="n">
-        <v>449108.5909581534</v>
+        <v>518443.6825410393</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.72289653674284e-06</v>
+        <v>3.969673527033776e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.44205729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>406246.2973649728</v>
+        <v>468964.1451196001</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>328.9573511144068</v>
+        <v>379.6318548284565</v>
       </c>
       <c r="AB10" t="n">
-        <v>450.0939603688175</v>
+        <v>519.4290519517033</v>
       </c>
       <c r="AC10" t="n">
-        <v>407.1376245020577</v>
+        <v>469.8554722566851</v>
       </c>
       <c r="AD10" t="n">
-        <v>328957.3511144068</v>
+        <v>379631.8548284565</v>
       </c>
       <c r="AE10" t="n">
-        <v>450093.9603688175</v>
+        <v>519429.0519517033</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.72423659198643e-06</v>
+        <v>3.971627175199786e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.43880208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>407137.6245020577</v>
+        <v>469855.4722566851</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.2825561706647</v>
+        <v>291.2447491834026</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.3969497538952</v>
+        <v>398.4939146442429</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.1506443739857</v>
+        <v>360.4622147203174</v>
       </c>
       <c r="AD2" t="n">
-        <v>239282.5561706647</v>
+        <v>291244.7491834026</v>
       </c>
       <c r="AE2" t="n">
-        <v>327396.9497538952</v>
+        <v>398493.9146442428</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.961955612295713e-06</v>
+        <v>4.745748647393316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.587890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>296150.6443739857</v>
+        <v>360462.2147203174</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.3852061101408</v>
+        <v>283.0827188509782</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.1691558127963</v>
+        <v>387.3262646600548</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.0400293634053</v>
+        <v>350.3603895767251</v>
       </c>
       <c r="AD3" t="n">
-        <v>238385.2061101407</v>
+        <v>283082.7188509781</v>
       </c>
       <c r="AE3" t="n">
-        <v>326169.1558127963</v>
+        <v>387326.2646600548</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.981543902109015e-06</v>
+        <v>4.777133688918019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>295040.0293634053</v>
+        <v>350360.3895767251</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.6208118874249</v>
+        <v>741.6344759391603</v>
       </c>
       <c r="AB2" t="n">
-        <v>913.4682481758826</v>
+        <v>1014.737008583875</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.2881206307142</v>
+        <v>917.8919326769658</v>
       </c>
       <c r="AD2" t="n">
-        <v>667620.8118874249</v>
+        <v>741634.4759391603</v>
       </c>
       <c r="AE2" t="n">
-        <v>913468.2481758826</v>
+        <v>1014737.008583875</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.791340001222279e-06</v>
+        <v>2.659859014560801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.08268229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>826288.1206307141</v>
+        <v>917891.9326769658</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.4420477662725</v>
+        <v>472.9039453194907</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.4261377634365</v>
+        <v>647.0480410357554</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.1763449663883</v>
+        <v>585.2946841369314</v>
       </c>
       <c r="AD3" t="n">
-        <v>415442.0477662726</v>
+        <v>472903.9453194907</v>
       </c>
       <c r="AE3" t="n">
-        <v>568426.1377634365</v>
+        <v>647048.0410357554</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.400859333897489e-06</v>
+        <v>3.564899649202482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.49283854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>514176.3449663884</v>
+        <v>585294.6841369314</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.7165800444808</v>
+        <v>407.0306056302977</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.4436061585801</v>
+        <v>556.9172315463587</v>
       </c>
       <c r="AC4" t="n">
-        <v>442.73179532522</v>
+        <v>503.7658326058171</v>
       </c>
       <c r="AD4" t="n">
-        <v>357716.5800444809</v>
+        <v>407030.6056302977</v>
       </c>
       <c r="AE4" t="n">
-        <v>489443.60615858</v>
+        <v>556917.2315463587</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.621380940625369e-06</v>
+        <v>3.892339656772436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>442731.79532522</v>
+        <v>503765.8326058171</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.0393769560253</v>
+        <v>373.4386538878628</v>
       </c>
       <c r="AB5" t="n">
-        <v>443.3649711596128</v>
+        <v>510.9552412000407</v>
       </c>
       <c r="AC5" t="n">
-        <v>401.0508405787838</v>
+        <v>462.1903901100931</v>
       </c>
       <c r="AD5" t="n">
-        <v>324039.3769560253</v>
+        <v>373438.6538878627</v>
       </c>
       <c r="AE5" t="n">
-        <v>443364.9711596128</v>
+        <v>510955.2412000407</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.733432984477171e-06</v>
+        <v>4.058719371810238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.85221354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>401050.8405787838</v>
+        <v>462190.3901100931</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>303.5292022312364</v>
+        <v>352.9284791630737</v>
       </c>
       <c r="AB6" t="n">
-        <v>415.3020452561084</v>
+        <v>482.8923152965363</v>
       </c>
       <c r="AC6" t="n">
-        <v>375.666200936946</v>
+        <v>436.8057504682552</v>
       </c>
       <c r="AD6" t="n">
-        <v>303529.2022312363</v>
+        <v>352928.4791630738</v>
       </c>
       <c r="AE6" t="n">
-        <v>415302.0452561084</v>
+        <v>482892.3152965363</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.810953892257414e-06</v>
+        <v>4.173825764363033e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>375666.200936946</v>
+        <v>436805.7504682552</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>299.8612738756978</v>
+        <v>349.089958606943</v>
       </c>
       <c r="AB7" t="n">
-        <v>410.2834238624822</v>
+        <v>477.6402821280629</v>
       </c>
       <c r="AC7" t="n">
-        <v>371.1265497254481</v>
+        <v>432.0549639741062</v>
       </c>
       <c r="AD7" t="n">
-        <v>299861.2738756978</v>
+        <v>349089.958606943</v>
       </c>
       <c r="AE7" t="n">
-        <v>410283.4238624821</v>
+        <v>477640.282128063</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.826278949764676e-06</v>
+        <v>4.19658107174831e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.46158854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>371126.5497254481</v>
+        <v>432054.9639741062</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.4807922322868</v>
+        <v>874.065853448754</v>
       </c>
       <c r="AB2" t="n">
-        <v>1081.570693483517</v>
+        <v>1195.935461752537</v>
       </c>
       <c r="AC2" t="n">
-        <v>978.347104491452</v>
+        <v>1081.797059788836</v>
       </c>
       <c r="AD2" t="n">
-        <v>790480.7922322869</v>
+        <v>874065.8534487539</v>
       </c>
       <c r="AE2" t="n">
-        <v>1081570.693483517</v>
+        <v>1195935.461752537</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.620894314817189e-06</v>
+        <v>2.383431854707047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.580078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>978347.104491452</v>
+        <v>1081797.059788836</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.950430277043</v>
+        <v>527.3747217825493</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.6386673379046</v>
+        <v>721.5773604735688</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.4015734726997</v>
+        <v>652.7110299301567</v>
       </c>
       <c r="AD3" t="n">
-        <v>468950.430277043</v>
+        <v>527374.7217825493</v>
       </c>
       <c r="AE3" t="n">
-        <v>641638.6673379046</v>
+        <v>721577.3604735688</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.267048466904142e-06</v>
+        <v>3.333564368009718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.00065104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>580401.5734726997</v>
+        <v>652711.0299301567</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.8448449008853</v>
+        <v>452.2690468978406</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.8758920016686</v>
+        <v>618.8144626677844</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.4463331860931</v>
+        <v>559.7556788623235</v>
       </c>
       <c r="AD4" t="n">
-        <v>393844.8449008853</v>
+        <v>452269.0468978406</v>
       </c>
       <c r="AE4" t="n">
-        <v>538875.8920016686</v>
+        <v>618814.4626677844</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499398752768516e-06</v>
+        <v>3.675222098385493e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.69856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>487446.3331860931</v>
+        <v>559755.6788623235</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.6931269214276</v>
+        <v>414.7589123052872</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.9892253791446</v>
+        <v>567.4914416879069</v>
       </c>
       <c r="AC5" t="n">
-        <v>451.3663940447346</v>
+        <v>513.3308549724529</v>
       </c>
       <c r="AD5" t="n">
-        <v>364693.1269214276</v>
+        <v>414758.9123052872</v>
       </c>
       <c r="AE5" t="n">
-        <v>498989.2253791445</v>
+        <v>567491.4416879069</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.624007928318105e-06</v>
+        <v>3.858452723404478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>451366.3940447346</v>
+        <v>513330.854972453</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.7577522348589</v>
+        <v>386.9087889647391</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.7668133112302</v>
+        <v>529.3856742726417</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.7918753390896</v>
+        <v>478.8618485175203</v>
       </c>
       <c r="AD6" t="n">
-        <v>336757.7522348589</v>
+        <v>386908.7889647391</v>
       </c>
       <c r="AE6" t="n">
-        <v>460766.8133112302</v>
+        <v>529385.6742726418</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.697817901628777e-06</v>
+        <v>3.966986043544832e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.76432291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>416791.8753390896</v>
+        <v>478861.8485175204</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.7441826564729</v>
+        <v>367.7246271857609</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.7516085945934</v>
+        <v>503.1370577811581</v>
       </c>
       <c r="AC7" t="n">
-        <v>393.2595252480396</v>
+        <v>455.1183631438193</v>
       </c>
       <c r="AD7" t="n">
-        <v>317744.1826564729</v>
+        <v>367724.6271857609</v>
       </c>
       <c r="AE7" t="n">
-        <v>434751.6085945935</v>
+        <v>503137.0577811581</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.768995286723613e-06</v>
+        <v>4.07164829414253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.46158854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>393259.5252480396</v>
+        <v>455118.3631438193</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>314.8093630534012</v>
+        <v>364.7898075826892</v>
       </c>
       <c r="AB8" t="n">
-        <v>430.7360589385677</v>
+        <v>499.1215081251324</v>
       </c>
       <c r="AC8" t="n">
-        <v>389.6272140153258</v>
+        <v>451.4860519111054</v>
       </c>
       <c r="AD8" t="n">
-        <v>314809.3630534012</v>
+        <v>364789.8075826892</v>
       </c>
       <c r="AE8" t="n">
-        <v>430736.0589385678</v>
+        <v>499121.5081251324</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.763925116826447e-06</v>
+        <v>4.06419290094927e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>389627.2140153258</v>
+        <v>451486.0519111054</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>314.9461948527742</v>
+        <v>364.9266393820622</v>
       </c>
       <c r="AB9" t="n">
-        <v>430.9232782430629</v>
+        <v>499.3087274296275</v>
       </c>
       <c r="AC9" t="n">
-        <v>389.7965653721637</v>
+        <v>451.6554032679434</v>
       </c>
       <c r="AD9" t="n">
-        <v>314946.1948527742</v>
+        <v>364926.6393820622</v>
       </c>
       <c r="AE9" t="n">
-        <v>430923.2782430629</v>
+        <v>499308.7274296276</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.770555338999664e-06</v>
+        <v>4.073942261278918e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.455078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>389796.5653721637</v>
+        <v>451655.4032679434</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1121.713484757117</v>
+        <v>1224.526835056475</v>
       </c>
       <c r="AB2" t="n">
-        <v>1534.777876351053</v>
+        <v>1675.451638035528</v>
       </c>
       <c r="AC2" t="n">
-        <v>1388.300829906386</v>
+        <v>1515.54888521256</v>
       </c>
       <c r="AD2" t="n">
-        <v>1121713.484757117</v>
+        <v>1224526.835056475</v>
       </c>
       <c r="AE2" t="n">
-        <v>1534777.876351053</v>
+        <v>1675451.638035528</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.323785089084357e-06</v>
+        <v>1.915215871620912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.14127604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1388300.829906386</v>
+        <v>1515548.88521256</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>577.72732578643</v>
+        <v>637.8013817532855</v>
       </c>
       <c r="AB3" t="n">
-        <v>790.4720146717885</v>
+        <v>872.6679883259418</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.0304750259528</v>
+        <v>789.3817803173274</v>
       </c>
       <c r="AD3" t="n">
-        <v>577727.32578643</v>
+        <v>637801.3817532854</v>
       </c>
       <c r="AE3" t="n">
-        <v>790472.0146717886</v>
+        <v>872667.9883259418</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.020687448295908e-06</v>
+        <v>2.923475044758468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15950520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>715030.4750259528</v>
+        <v>789381.7803173274</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.9269324765999</v>
+        <v>533.830306734312</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.4477371951205</v>
+        <v>730.4101766048784</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.5607952593325</v>
+        <v>660.7008544868294</v>
       </c>
       <c r="AD4" t="n">
-        <v>473926.9324765999</v>
+        <v>533830.306734312</v>
       </c>
       <c r="AE4" t="n">
-        <v>648447.7371951204</v>
+        <v>730410.1766048784</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.288907802617707e-06</v>
+        <v>3.31152887911931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>586560.7952593325</v>
+        <v>660700.8544868294</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.0078960888405</v>
+        <v>488.9965216925731</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.9875299213631</v>
+        <v>669.0666139837703</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.96626390784</v>
+        <v>605.211835386049</v>
       </c>
       <c r="AD5" t="n">
-        <v>429007.8960888405</v>
+        <v>488996.5216925731</v>
       </c>
       <c r="AE5" t="n">
-        <v>586987.5299213631</v>
+        <v>669066.6139837703</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.424523778259009e-06</v>
+        <v>3.507734344141756e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.63671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>530966.26390784</v>
+        <v>605211.835386049</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>405.8727999169879</v>
+        <v>457.2795198209424</v>
       </c>
       <c r="AB6" t="n">
-        <v>555.3330706906252</v>
+        <v>625.670012767637</v>
       </c>
       <c r="AC6" t="n">
-        <v>502.3328618387709</v>
+        <v>565.9569448824711</v>
       </c>
       <c r="AD6" t="n">
-        <v>405872.7999169879</v>
+        <v>457279.5198209424</v>
       </c>
       <c r="AE6" t="n">
-        <v>555333.0706906251</v>
+        <v>625670.012767637</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.512330652147514e-06</v>
+        <v>3.634770915179885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>502332.8618387709</v>
+        <v>565956.9448824711</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.1128577265678</v>
+        <v>441.0161424757287</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.4554254541357</v>
+        <v>603.4177423943453</v>
       </c>
       <c r="AC7" t="n">
-        <v>471.6884515160784</v>
+        <v>545.8283999623486</v>
       </c>
       <c r="AD7" t="n">
-        <v>381112.8577265678</v>
+        <v>441016.1424757286</v>
       </c>
       <c r="AE7" t="n">
-        <v>521455.4254541358</v>
+        <v>603417.7423943452</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568327533137503e-06</v>
+        <v>3.715785663055218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>471688.4515160784</v>
+        <v>545828.3999623486</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>366.42254120481</v>
+        <v>417.914512454785</v>
       </c>
       <c r="AB8" t="n">
-        <v>501.3554862980417</v>
+        <v>571.809073027703</v>
       </c>
       <c r="AC8" t="n">
-        <v>453.5068223426003</v>
+        <v>517.2364176370128</v>
       </c>
       <c r="AD8" t="n">
-        <v>366422.54120481</v>
+        <v>417914.5124547851</v>
       </c>
       <c r="AE8" t="n">
-        <v>501355.4862980418</v>
+        <v>571809.073027703</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.620089355901359e-06</v>
+        <v>3.790673245124854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>453506.8223426003</v>
+        <v>517236.4176370128</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>355.9105219812908</v>
+        <v>407.4024932312659</v>
       </c>
       <c r="AB9" t="n">
-        <v>486.9724778388651</v>
+        <v>557.4260645685264</v>
       </c>
       <c r="AC9" t="n">
-        <v>440.4965080240882</v>
+        <v>504.2261033185007</v>
       </c>
       <c r="AD9" t="n">
-        <v>355910.5219812908</v>
+        <v>407402.4932312659</v>
       </c>
       <c r="AE9" t="n">
-        <v>486972.4778388651</v>
+        <v>557426.0645685263</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.646817278928513e-06</v>
+        <v>3.829342469320812e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.57552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>440496.5080240882</v>
+        <v>504226.1033185007</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>346.3704898331245</v>
+        <v>397.6918688825073</v>
       </c>
       <c r="AB10" t="n">
-        <v>473.9193849772294</v>
+        <v>544.1395599320438</v>
       </c>
       <c r="AC10" t="n">
-        <v>428.6891840250362</v>
+        <v>492.2076440367977</v>
       </c>
       <c r="AD10" t="n">
-        <v>346370.4898331244</v>
+        <v>397691.8688825073</v>
       </c>
       <c r="AE10" t="n">
-        <v>473919.3849772294</v>
+        <v>544139.5599320438</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.669780705754661e-06</v>
+        <v>3.862565323911705e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.474609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>428689.1840250362</v>
+        <v>492207.6440367976</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>341.835303782659</v>
+        <v>393.1566828320419</v>
       </c>
       <c r="AB11" t="n">
-        <v>467.7141433446949</v>
+        <v>537.9343182995091</v>
       </c>
       <c r="AC11" t="n">
-        <v>423.0761619447994</v>
+        <v>486.5946219565609</v>
       </c>
       <c r="AD11" t="n">
-        <v>341835.303782659</v>
+        <v>393156.6828320419</v>
       </c>
       <c r="AE11" t="n">
-        <v>467714.1433446949</v>
+        <v>537934.3182995091</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.680038957902406e-06</v>
+        <v>3.877406681085506e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>423076.1619447994</v>
+        <v>486594.6219565609</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>343.1066565316721</v>
+        <v>394.4280355810549</v>
       </c>
       <c r="AB12" t="n">
-        <v>469.4536642640193</v>
+        <v>539.6738392188336</v>
       </c>
       <c r="AC12" t="n">
-        <v>424.6496654290165</v>
+        <v>488.1681254407779</v>
       </c>
       <c r="AD12" t="n">
-        <v>343106.6565316721</v>
+        <v>394428.0355810549</v>
       </c>
       <c r="AE12" t="n">
-        <v>469453.6642640193</v>
+        <v>539673.8392188336</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.67956839587728e-06</v>
+        <v>3.876725884884872e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>424649.6654290165</v>
+        <v>488168.1254407779</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.4516847255982</v>
+        <v>624.228626969817</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.5205233728869</v>
+        <v>854.0971464435196</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.5101435983834</v>
+        <v>772.5833135198232</v>
       </c>
       <c r="AD2" t="n">
-        <v>551451.6847255982</v>
+        <v>624228.626969817</v>
       </c>
       <c r="AE2" t="n">
-        <v>754520.5233728869</v>
+        <v>854097.1464435196</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.983258789904234e-06</v>
+        <v>2.978229210448487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.71223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>682510.1435983834</v>
+        <v>772583.3135198231</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>362.9108925940317</v>
+        <v>419.4962163718525</v>
       </c>
       <c r="AB3" t="n">
-        <v>496.550693745772</v>
+        <v>573.9732301068867</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.1605924479505</v>
+        <v>519.1940306019727</v>
       </c>
       <c r="AD3" t="n">
-        <v>362910.8925940317</v>
+        <v>419496.2163718526</v>
       </c>
       <c r="AE3" t="n">
-        <v>496550.693745772</v>
+        <v>573973.2301068867</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550878675612746e-06</v>
+        <v>3.830615259437158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99153645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>449160.5924479505</v>
+        <v>519194.0306019727</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.3214480847444</v>
+        <v>368.8110521379174</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.2779368544805</v>
+        <v>504.6235523303847</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.4493056880359</v>
+        <v>456.462988739576</v>
       </c>
       <c r="AD4" t="n">
-        <v>320321.4480847443</v>
+        <v>368811.0521379174</v>
       </c>
       <c r="AE4" t="n">
-        <v>438277.9368544805</v>
+        <v>504623.5523303847</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.760108965322341e-06</v>
+        <v>4.144813166284103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.00846354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>396449.3056880359</v>
+        <v>456462.988739576</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>289.0522809909927</v>
+        <v>337.6271363901863</v>
       </c>
       <c r="AB5" t="n">
-        <v>395.4940829385175</v>
+        <v>461.9563430670709</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.7486827422962</v>
+        <v>417.8678780445485</v>
       </c>
       <c r="AD5" t="n">
-        <v>289052.2809909927</v>
+        <v>337627.1363901863</v>
       </c>
       <c r="AE5" t="n">
-        <v>395494.0829385174</v>
+        <v>461956.3430670709</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.855509832211825e-06</v>
+        <v>4.288075180257625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.60807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>357748.6827422963</v>
+        <v>417867.8780445486</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>286.8857196166772</v>
+        <v>335.4605750158709</v>
       </c>
       <c r="AB6" t="n">
-        <v>392.5296980842372</v>
+        <v>458.9919582127907</v>
       </c>
       <c r="AC6" t="n">
-        <v>355.0672146179681</v>
+        <v>415.1864099202205</v>
       </c>
       <c r="AD6" t="n">
-        <v>286885.7196166773</v>
+        <v>335460.5750158709</v>
       </c>
       <c r="AE6" t="n">
-        <v>392529.6980842372</v>
+        <v>458991.9582127907</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.868440365931104e-06</v>
+        <v>4.307492763795124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.55598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>355067.2146179681</v>
+        <v>415186.4099202205</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.2772795311195</v>
+        <v>470.0574746131913</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.2547416599475</v>
+        <v>643.153374237972</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.0711312278635</v>
+        <v>581.7717188721292</v>
       </c>
       <c r="AD2" t="n">
-        <v>407277.2795311195</v>
+        <v>470057.4746131913</v>
       </c>
       <c r="AE2" t="n">
-        <v>557254.7416599476</v>
+        <v>643153.374237972</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.324148770433373e-06</v>
+        <v>3.564655620569649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.853515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>504071.1312278635</v>
+        <v>581771.7188721292</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.4701449840691</v>
+        <v>341.5340455905312</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.9070434731349</v>
+        <v>467.3019485956521</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.4541607276452</v>
+        <v>422.7033064840864</v>
       </c>
       <c r="AD3" t="n">
-        <v>294470.1449840691</v>
+        <v>341534.0455905311</v>
       </c>
       <c r="AE3" t="n">
-        <v>402907.0434731349</v>
+        <v>467301.9485956521</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.822620031774838e-06</v>
+        <v>4.329184297063094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.22981770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>364454.1607276452</v>
+        <v>422703.3064840864</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.1846387488216</v>
+        <v>311.3337907013042</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.4690777398314</v>
+        <v>425.9806275149981</v>
       </c>
       <c r="AC4" t="n">
-        <v>326.9709762853781</v>
+        <v>385.3256342925315</v>
       </c>
       <c r="AD4" t="n">
-        <v>264184.6387488216</v>
+        <v>311333.7907013042</v>
       </c>
       <c r="AE4" t="n">
-        <v>361469.0777398315</v>
+        <v>425980.6275149981</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.940768326484283e-06</v>
+        <v>4.510393859959626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>326970.9762853781</v>
+        <v>385325.6342925315</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.5204006944008</v>
+        <v>312.6695526468834</v>
       </c>
       <c r="AB5" t="n">
-        <v>363.296726163431</v>
+        <v>427.8082759385976</v>
       </c>
       <c r="AC5" t="n">
-        <v>328.62419650855</v>
+        <v>386.9788545157034</v>
       </c>
       <c r="AD5" t="n">
-        <v>265520.4006944008</v>
+        <v>312669.5526468834</v>
       </c>
       <c r="AE5" t="n">
-        <v>363296.726163431</v>
+        <v>427808.2759385976</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.940662268769104e-06</v>
+        <v>4.510231194283776e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.74153645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>328624.19650855</v>
+        <v>386978.8545157034</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.5852269984979</v>
+        <v>376.2630476291378</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.3753390351554</v>
+        <v>514.819701320311</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.2510961518183</v>
+        <v>465.6860315802887</v>
       </c>
       <c r="AD2" t="n">
-        <v>322585.226998498</v>
+        <v>376263.0476291378</v>
       </c>
       <c r="AE2" t="n">
-        <v>441375.3390351554</v>
+        <v>514819.7013203109</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.60653349930196e-06</v>
+        <v>4.072657177833219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.701171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>399251.0961518183</v>
+        <v>465686.0315802887</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.6157063722051</v>
+        <v>301.1228452937048</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.7987334922778</v>
+        <v>412.0095615332021</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.4642578748847</v>
+        <v>372.687947239524</v>
       </c>
       <c r="AD3" t="n">
-        <v>247615.7063722051</v>
+        <v>301122.8452937048</v>
       </c>
       <c r="AE3" t="n">
-        <v>338798.7334922778</v>
+        <v>412009.5615332021</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.982735341591143e-06</v>
+        <v>4.660465135691208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>306464.2578748846</v>
+        <v>372687.947239524</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.0489462976896</v>
+        <v>302.5560852191893</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.7597555884076</v>
+        <v>413.970583629333</v>
       </c>
       <c r="AC4" t="n">
-        <v>308.2381227744723</v>
+        <v>374.4618121391119</v>
       </c>
       <c r="AD4" t="n">
-        <v>249048.9462976896</v>
+        <v>302556.0852191893</v>
       </c>
       <c r="AE4" t="n">
-        <v>340759.7555884076</v>
+        <v>413970.5836293329</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.982406206121074e-06</v>
+        <v>4.659950868011542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>308238.1227744723</v>
+        <v>374461.8121391119</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.7857996628033</v>
+        <v>277.5364261263454</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.8760450000607</v>
+        <v>379.7375822690464</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.3475242141986</v>
+        <v>343.4959603823319</v>
       </c>
       <c r="AD2" t="n">
-        <v>233785.7996628033</v>
+        <v>277536.4261263454</v>
       </c>
       <c r="AE2" t="n">
-        <v>319876.0450000607</v>
+        <v>379737.5822690463</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.936791100744545e-06</v>
+        <v>4.786018364771014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>289347.5242141986</v>
+        <v>343495.9603823319</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>722.0842034349628</v>
+        <v>804.9708189726032</v>
       </c>
       <c r="AB2" t="n">
-        <v>987.9874632464812</v>
+        <v>1101.396587324481</v>
       </c>
       <c r="AC2" t="n">
-        <v>893.6953264033499</v>
+        <v>996.280842850051</v>
       </c>
       <c r="AD2" t="n">
-        <v>722084.2034349628</v>
+        <v>804970.8189726032</v>
       </c>
       <c r="AE2" t="n">
-        <v>987987.4632464811</v>
+        <v>1101396.587324481</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.704728947527717e-06</v>
+        <v>2.518533824410652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80533854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>893695.3264033499</v>
+        <v>996280.842850051</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.5000935503576</v>
+        <v>496.5804630249061</v>
       </c>
       <c r="AB3" t="n">
-        <v>599.975173254408</v>
+        <v>679.4432970945462</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.7143847894509</v>
+        <v>614.5981824244988</v>
       </c>
       <c r="AD3" t="n">
-        <v>438500.0935503576</v>
+        <v>496580.4630249061</v>
       </c>
       <c r="AE3" t="n">
-        <v>599975.1732544079</v>
+        <v>679443.2970945463</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.329957073450742e-06</v>
+        <v>3.442233856250709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.759765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>542714.3847894509</v>
+        <v>614598.1824244987</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.7724346313465</v>
+        <v>425.6409493212454</v>
       </c>
       <c r="AB4" t="n">
-        <v>514.1484229724151</v>
+        <v>582.3807248147315</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.0788190957709</v>
+        <v>526.7991258148936</v>
       </c>
       <c r="AD4" t="n">
-        <v>375772.4346313466</v>
+        <v>425640.9493212454</v>
       </c>
       <c r="AE4" t="n">
-        <v>514148.4229724152</v>
+        <v>582380.7248147315</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.559604575364822e-06</v>
+        <v>3.781510667441607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.52278645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>465078.8190957709</v>
+        <v>526799.1258148936</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.5433480518325</v>
+        <v>398.4530358172375</v>
       </c>
       <c r="AB5" t="n">
-        <v>465.9464325167139</v>
+        <v>545.1810221124568</v>
       </c>
       <c r="AC5" t="n">
-        <v>421.4771589572433</v>
+        <v>493.1497105284135</v>
       </c>
       <c r="AD5" t="n">
-        <v>340543.3480518325</v>
+        <v>398453.0358172376</v>
       </c>
       <c r="AE5" t="n">
-        <v>465946.4325167139</v>
+        <v>545181.0221124568</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.675511569255418e-06</v>
+        <v>3.952749435353995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.982421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>421477.1589572433</v>
+        <v>493149.7105284135</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.701844785607</v>
+        <v>370.4850186209342</v>
       </c>
       <c r="AB6" t="n">
-        <v>438.7984124025188</v>
+        <v>506.9139471226375</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.9201077802614</v>
+        <v>458.5347914674453</v>
       </c>
       <c r="AD6" t="n">
-        <v>320701.844785607</v>
+        <v>370485.0186209342</v>
       </c>
       <c r="AE6" t="n">
-        <v>438798.4124025188</v>
+        <v>506913.9471226375</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.75114162134376e-06</v>
+        <v>4.064483822572952e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.650390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>396920.1077802614</v>
+        <v>458534.7914674453</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>303.4068341764765</v>
+        <v>353.0194158112114</v>
       </c>
       <c r="AB7" t="n">
-        <v>415.1346158850884</v>
+        <v>483.0167388303601</v>
       </c>
       <c r="AC7" t="n">
-        <v>375.5147507901075</v>
+        <v>436.9182991946404</v>
       </c>
       <c r="AD7" t="n">
-        <v>303406.8341764765</v>
+        <v>353019.4158112115</v>
       </c>
       <c r="AE7" t="n">
-        <v>415134.6158850884</v>
+        <v>483016.7388303601</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.822143271806904e-06</v>
+        <v>4.169380298074084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.357421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>375514.7507901075</v>
+        <v>436918.2991946404</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>304.2333920281685</v>
+        <v>353.8459736629035</v>
       </c>
       <c r="AB8" t="n">
-        <v>416.2655488029322</v>
+        <v>484.1476717482039</v>
       </c>
       <c r="AC8" t="n">
-        <v>376.5377490575466</v>
+        <v>437.9412974620795</v>
       </c>
       <c r="AD8" t="n">
-        <v>304233.3920281685</v>
+        <v>353845.9736629035</v>
       </c>
       <c r="AE8" t="n">
-        <v>416265.5488029323</v>
+        <v>484147.6717482039</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.817416393551383e-06</v>
+        <v>4.162396898872899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.376953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>376537.7490575467</v>
+        <v>437941.2974620796</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1028.718081592201</v>
+        <v>1122.451641493953</v>
       </c>
       <c r="AB2" t="n">
-        <v>1407.537463073179</v>
+        <v>1535.787854963569</v>
       </c>
       <c r="AC2" t="n">
-        <v>1273.204063088711</v>
+        <v>1389.214417577638</v>
       </c>
       <c r="AD2" t="n">
-        <v>1028718.081592201</v>
+        <v>1122451.641493953</v>
       </c>
       <c r="AE2" t="n">
-        <v>1407537.463073179</v>
+        <v>1535787.854963569</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.392966856162502e-06</v>
+        <v>2.022823308317065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.17447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1273204.063088711</v>
+        <v>1389214.417577638</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.4034265631828</v>
+        <v>610.5499484342644</v>
       </c>
       <c r="AB3" t="n">
-        <v>742.1402973740929</v>
+        <v>835.3813750104697</v>
       </c>
       <c r="AC3" t="n">
-        <v>671.3114689931582</v>
+        <v>755.6537490445934</v>
       </c>
       <c r="AD3" t="n">
-        <v>542403.4265631828</v>
+        <v>610549.9484342644</v>
       </c>
       <c r="AE3" t="n">
-        <v>742140.297374093</v>
+        <v>835381.3750104697</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.080198000813285e-06</v>
+        <v>3.020799083154056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.85026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>671311.4689931582</v>
+        <v>755653.7490445934</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.4541282545845</v>
+        <v>515.9864159389388</v>
       </c>
       <c r="AB4" t="n">
-        <v>624.5406756128402</v>
+        <v>705.9953780017457</v>
       </c>
       <c r="AC4" t="n">
-        <v>564.9353900806934</v>
+        <v>638.6161699959947</v>
       </c>
       <c r="AD4" t="n">
-        <v>456454.1282545845</v>
+        <v>515986.4159389387</v>
       </c>
       <c r="AE4" t="n">
-        <v>624540.6756128402</v>
+        <v>705995.3780017458</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.335750813923552e-06</v>
+        <v>3.391904960209567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.22591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>564935.3900806934</v>
+        <v>638616.1699959947</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.2390724989344</v>
+        <v>464.4983103977459</v>
       </c>
       <c r="AB5" t="n">
-        <v>565.411929814255</v>
+        <v>635.5470805053834</v>
       </c>
       <c r="AC5" t="n">
-        <v>511.4498087934092</v>
+        <v>574.8913591378788</v>
       </c>
       <c r="AD5" t="n">
-        <v>413239.0724989345</v>
+        <v>464498.3103977459</v>
       </c>
       <c r="AE5" t="n">
-        <v>565411.929814255</v>
+        <v>635547.0805053834</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.470027542683682e-06</v>
+        <v>3.586897465235022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>511449.8087934092</v>
+        <v>574891.3591378788</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>391.850579586328</v>
+        <v>442.9392252845473</v>
       </c>
       <c r="AB6" t="n">
-        <v>536.1472502175151</v>
+        <v>606.0489891337965</v>
       </c>
       <c r="AC6" t="n">
-        <v>484.9781091441463</v>
+        <v>548.2085242059646</v>
       </c>
       <c r="AD6" t="n">
-        <v>391850.579586328</v>
+        <v>442939.2252845473</v>
       </c>
       <c r="AE6" t="n">
-        <v>536147.250217515</v>
+        <v>606048.9891337964</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.551447636871802e-06</v>
+        <v>3.70513320326459e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.10611979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>484978.1091441463</v>
+        <v>548208.5242059646</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>365.9273893736625</v>
+        <v>417.1012864179024</v>
       </c>
       <c r="AB7" t="n">
-        <v>500.6779977181088</v>
+        <v>570.6963812870395</v>
       </c>
       <c r="AC7" t="n">
-        <v>452.8939923218748</v>
+        <v>516.2299196344055</v>
       </c>
       <c r="AD7" t="n">
-        <v>365927.3893736625</v>
+        <v>417101.2864179024</v>
       </c>
       <c r="AE7" t="n">
-        <v>500677.9977181088</v>
+        <v>570696.3812870395</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.61645085892176e-06</v>
+        <v>3.799528868241578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.806640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>452893.9923218748</v>
+        <v>516229.9196344055</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>348.1744040437046</v>
+        <v>399.3483010879445</v>
       </c>
       <c r="AB8" t="n">
-        <v>476.3875799832236</v>
+        <v>546.4059635521543</v>
       </c>
       <c r="AC8" t="n">
-        <v>430.9218179637917</v>
+        <v>494.2577452763223</v>
       </c>
       <c r="AD8" t="n">
-        <v>348174.4040437046</v>
+        <v>399348.3010879445</v>
       </c>
       <c r="AE8" t="n">
-        <v>476387.5799832236</v>
+        <v>546405.9635521543</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.677658272384857e-06</v>
+        <v>3.88841237759947e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>430921.8179637917</v>
+        <v>494257.7452763224</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>340.3582750817258</v>
+        <v>391.3615799253734</v>
       </c>
       <c r="AB9" t="n">
-        <v>465.6932075141707</v>
+        <v>535.4781793082545</v>
       </c>
       <c r="AC9" t="n">
-        <v>421.2481013935393</v>
+        <v>484.3728934234188</v>
       </c>
       <c r="AD9" t="n">
-        <v>340358.2750817258</v>
+        <v>391361.5799253734</v>
       </c>
       <c r="AE9" t="n">
-        <v>465693.2075141707</v>
+        <v>535478.1793082545</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.689425279004119e-06</v>
+        <v>3.905500060018662e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>421248.1013935393</v>
+        <v>484372.8934234187</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>335.61590258834</v>
+        <v>386.6192074319876</v>
       </c>
       <c r="AB10" t="n">
-        <v>459.2044842500117</v>
+        <v>528.9894560440956</v>
       </c>
       <c r="AC10" t="n">
-        <v>415.3786527707314</v>
+        <v>478.5034448006109</v>
       </c>
       <c r="AD10" t="n">
-        <v>335615.90258834</v>
+        <v>386619.2074319876</v>
       </c>
       <c r="AE10" t="n">
-        <v>459204.4842500117</v>
+        <v>528989.4560440956</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.699009695685937e-06</v>
+        <v>3.919418252956874e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>415378.6527707314</v>
+        <v>478503.4448006109</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>335.2001387699885</v>
+        <v>386.2034436136362</v>
       </c>
       <c r="AB11" t="n">
-        <v>458.6356178515381</v>
+        <v>528.420589645622</v>
       </c>
       <c r="AC11" t="n">
-        <v>414.8640781829191</v>
+        <v>477.9888702127986</v>
       </c>
       <c r="AD11" t="n">
-        <v>335200.1387699886</v>
+        <v>386203.4436136362</v>
       </c>
       <c r="AE11" t="n">
-        <v>458635.6178515381</v>
+        <v>528420.5896456221</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.704228932492868e-06</v>
+        <v>3.926997466933129e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.42252604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>414864.0781829191</v>
+        <v>477988.8702127986</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.2502038561656</v>
+        <v>278.9746003019756</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.6702427210571</v>
+        <v>381.7053556239102</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.7339949948031</v>
+        <v>345.2759322099948</v>
       </c>
       <c r="AD2" t="n">
-        <v>229250.2038561656</v>
+        <v>278974.6003019756</v>
       </c>
       <c r="AE2" t="n">
-        <v>313670.2427210571</v>
+        <v>381705.3556239103</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.780479055792805e-06</v>
+        <v>4.634892927728721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283733.9949948031</v>
+        <v>345275.9322099948</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.437257619036</v>
+        <v>518.8069932249707</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.1493483481165</v>
+        <v>709.8546162795825</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.6768491373749</v>
+        <v>642.1070879890697</v>
       </c>
       <c r="AD2" t="n">
-        <v>455437.257619036</v>
+        <v>518806.9932249708</v>
       </c>
       <c r="AE2" t="n">
-        <v>623149.3483481165</v>
+        <v>709854.6162795825</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203005003330575e-06</v>
+        <v>3.352767902255152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>563676.8491373749</v>
+        <v>642107.0879890696</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.8030149396376</v>
+        <v>365.3730094485122</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.8321055199164</v>
+        <v>499.9194706470018</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.332339659788</v>
+        <v>452.207858009835</v>
       </c>
       <c r="AD3" t="n">
-        <v>317803.0149396376</v>
+        <v>365373.0094485122</v>
       </c>
       <c r="AE3" t="n">
-        <v>434832.1055199164</v>
+        <v>499919.4706470019</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.724832603388907e-06</v>
+        <v>4.146940782181144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.48372395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>393332.339659788</v>
+        <v>452207.858009835</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.7998119754338</v>
+        <v>322.4550578303291</v>
       </c>
       <c r="AB4" t="n">
-        <v>375.9932260568735</v>
+        <v>441.1972358366083</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.1089602718119</v>
+        <v>399.0899908725712</v>
       </c>
       <c r="AD4" t="n">
-        <v>274799.8119754338</v>
+        <v>322455.0578303291</v>
       </c>
       <c r="AE4" t="n">
-        <v>375993.2260568736</v>
+        <v>441197.2358366083</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.904592962311464e-06</v>
+        <v>4.420519262748479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>340108.9602718119</v>
+        <v>399089.9908725712</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.9804417559919</v>
+        <v>319.6356876108871</v>
       </c>
       <c r="AB5" t="n">
-        <v>372.1356393407974</v>
+        <v>437.3396491205322</v>
       </c>
       <c r="AC5" t="n">
-        <v>336.6195362177611</v>
+        <v>395.6005668185204</v>
       </c>
       <c r="AD5" t="n">
-        <v>271980.4417559919</v>
+        <v>319635.6876108872</v>
       </c>
       <c r="AE5" t="n">
-        <v>372135.6393407974</v>
+        <v>437339.6491205322</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.920687785145227e-06</v>
+        <v>4.445014080194624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.64713541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>336619.5362177611</v>
+        <v>395600.5668185204</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>607.8889102556519</v>
+        <v>681.2143084323404</v>
       </c>
       <c r="AB2" t="n">
-        <v>831.7404251777731</v>
+        <v>932.0674698513789</v>
       </c>
       <c r="AC2" t="n">
-        <v>752.3602863538242</v>
+        <v>843.1122586936725</v>
       </c>
       <c r="AD2" t="n">
-        <v>607888.9102556519</v>
+        <v>681214.3084323404</v>
       </c>
       <c r="AE2" t="n">
-        <v>831740.4251777731</v>
+        <v>932067.4698513788</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.884357503288756e-06</v>
+        <v>2.813177468019159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>752360.2863538242</v>
+        <v>843112.2586936725</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.0319815248462</v>
+        <v>450.0249373954723</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.7636964695707</v>
+        <v>615.7439730435202</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.4402840346024</v>
+        <v>556.9782324583398</v>
       </c>
       <c r="AD3" t="n">
-        <v>393031.9815248462</v>
+        <v>450024.9373954723</v>
       </c>
       <c r="AE3" t="n">
-        <v>537763.6964695707</v>
+        <v>615743.9730435202</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.474508448810652e-06</v>
+        <v>3.694220125675611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.23567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>486440.2840346024</v>
+        <v>556978.2324583398</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.9198931191896</v>
+        <v>388.8319686913561</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.0933939729812</v>
+        <v>532.0170536193004</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.7055332148774</v>
+        <v>481.2420927124982</v>
       </c>
       <c r="AD4" t="n">
-        <v>339919.8931191895</v>
+        <v>388831.9686913561</v>
       </c>
       <c r="AE4" t="n">
-        <v>465093.3939729813</v>
+        <v>532017.0536193005</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.686016937725746e-06</v>
+        <v>4.009983410653251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>420705.5332148774</v>
+        <v>481242.0927124982</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.5473625277353</v>
+        <v>355.5446894459225</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.4316253256133</v>
+        <v>486.4719296245818</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.4016596805193</v>
+        <v>440.0437314288524</v>
       </c>
       <c r="AD5" t="n">
-        <v>306547.3625277354</v>
+        <v>355544.6894459225</v>
       </c>
       <c r="AE5" t="n">
-        <v>419431.6253256133</v>
+        <v>486471.9296245818</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793381142136976e-06</v>
+        <v>4.170268579573871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.72526041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>379401.6596805194</v>
+        <v>440043.7314288524</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>292.6128340167233</v>
+        <v>341.4395687343182</v>
       </c>
       <c r="AB6" t="n">
-        <v>400.3657886688354</v>
+        <v>467.172681192957</v>
       </c>
       <c r="AC6" t="n">
-        <v>362.1554397151946</v>
+        <v>422.5863761808765</v>
       </c>
       <c r="AD6" t="n">
-        <v>292612.8340167233</v>
+        <v>341439.5687343183</v>
       </c>
       <c r="AE6" t="n">
-        <v>400365.7886688354</v>
+        <v>467172.681192957</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.849327250527458e-06</v>
+        <v>4.253791123078898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.494140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>362155.4397151946</v>
+        <v>422586.3761808765</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>293.8124413820863</v>
+        <v>342.6391760996812</v>
       </c>
       <c r="AB7" t="n">
-        <v>402.007144389067</v>
+        <v>468.8140369131884</v>
       </c>
       <c r="AC7" t="n">
-        <v>363.6401467491444</v>
+        <v>424.0710832148263</v>
       </c>
       <c r="AD7" t="n">
-        <v>293812.4413820863</v>
+        <v>342639.1760996812</v>
       </c>
       <c r="AE7" t="n">
-        <v>402007.144389067</v>
+        <v>468814.0369131884</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.848924760539037e-06</v>
+        <v>4.253190241470948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.49739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>363640.1467491444</v>
+        <v>424071.0832148263</v>
       </c>
     </row>
   </sheetData>
